--- a/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_ngrams.xlsx
+++ b/data/Fakespeak-ENG/Analysis_output/social_media/Fakespeak_social_media_ngrams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="509">
   <si>
     <t>n</t>
   </si>
@@ -30,216 +30,216 @@
     <t>ngram_count</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>will</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>they</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>he</t>
-  </si>
-  <si>
     <t>trump</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>an</t>
-  </si>
-  <si>
-    <t>his</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
     <t>people</t>
   </si>
   <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>but</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>gun</t>
   </si>
   <si>
-    <t>up</t>
-  </si>
-  <si>
-    <t>just</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>her</t>
-  </si>
-  <si>
-    <t>do</t>
-  </si>
-  <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>she</t>
-  </si>
-  <si>
     <t>president</t>
   </si>
   <si>
-    <t>were</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>than</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>so</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>of the</t>
-  </si>
-  <si>
-    <t>in the</t>
-  </si>
-  <si>
-    <t>to the</t>
-  </si>
-  <si>
-    <t>for the</t>
-  </si>
-  <si>
-    <t>to be</t>
-  </si>
-  <si>
-    <t>this is</t>
-  </si>
-  <si>
-    <t>on the</t>
-  </si>
-  <si>
-    <t>from the</t>
-  </si>
-  <si>
-    <t>and the</t>
-  </si>
-  <si>
-    <t>at the</t>
-  </si>
-  <si>
-    <t>that the</t>
-  </si>
-  <si>
-    <t>with the</t>
-  </si>
-  <si>
-    <t>if you</t>
-  </si>
-  <si>
-    <t>it is</t>
+    <t>law</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>america</t>
+  </si>
+  <si>
+    <t>democrats</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>communities</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>must</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>government</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>left</t>
   </si>
   <si>
     <t>need to</t>
   </si>
   <si>
-    <t>by the</t>
-  </si>
-  <si>
     <t>the border</t>
   </si>
   <si>
-    <t>more than</t>
-  </si>
-  <si>
-    <t>it was</t>
-  </si>
-  <si>
     <t>united states</t>
   </si>
   <si>
+    <t>the united</t>
+  </si>
+  <si>
+    <t>the state</t>
+  </si>
+  <si>
+    <t>the first</t>
+  </si>
+  <si>
+    <t>gun violence</t>
+  </si>
+  <si>
+    <t>to get</t>
+  </si>
+  <si>
+    <t>one of</t>
+  </si>
+  <si>
+    <t>donald trump</t>
+  </si>
+  <si>
+    <t>climate change</t>
+  </si>
+  <si>
+    <t>the world</t>
+  </si>
+  <si>
+    <t>the american</t>
+  </si>
+  <si>
+    <t>we need</t>
+  </si>
+  <si>
+    <t>president trump</t>
+  </si>
+  <si>
+    <t>to make</t>
+  </si>
+  <si>
+    <t>continue to</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>we must</t>
+  </si>
+  <si>
+    <t>want to</t>
+  </si>
+  <si>
     <t>the united states</t>
   </si>
   <si>
@@ -285,9 +285,6 @@
     <t>warren administration will</t>
   </si>
   <si>
-    <t>there is no</t>
-  </si>
-  <si>
     <t>the use of</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
     <t>new york times</t>
   </si>
   <si>
+    <t>green new deal</t>
+  </si>
+  <si>
     <t>in the united states</t>
   </si>
   <si>
@@ -333,9 +333,6 @@
     <t>technique capable of causing</t>
   </si>
   <si>
-    <t>so that we can</t>
-  </si>
-  <si>
     <t>rio grande valley partnership</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
     <t>injury or death to</t>
   </si>
   <si>
+    <t>explosive or incendiary device</t>
+  </si>
+  <si>
     <t>we don care that he</t>
   </si>
   <si>
@@ -420,15 +420,6 @@
     <t>most manufacturing jobs in the</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
     <t>coronavirus</t>
   </si>
   <si>
@@ -441,24 +432,72 @@
     <t>covid</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>biden</t>
   </si>
   <si>
+    <t>virus</t>
+  </si>
+  <si>
+    <t>catholic</t>
+  </si>
+  <si>
+    <t>election</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>saint</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>wisconsin</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
     <t>covid 19</t>
   </si>
   <si>
-    <t>will be</t>
-  </si>
-  <si>
     <t>lutheran school</t>
   </si>
   <si>
@@ -468,6 +507,27 @@
     <t>the coronavirus</t>
   </si>
   <si>
+    <t>milwaukee milwaukee</t>
+  </si>
+  <si>
+    <t>joe biden</t>
+  </si>
+  <si>
+    <t>going to</t>
+  </si>
+  <si>
+    <t>school catholic</t>
+  </si>
+  <si>
+    <t>year old</t>
+  </si>
+  <si>
+    <t>trying to</t>
+  </si>
+  <si>
+    <t>school lutheran</t>
+  </si>
+  <si>
     <t>lutheran school lutheran</t>
   </si>
   <si>
@@ -498,9 +558,6 @@
     <t>year old girl</t>
   </si>
   <si>
-    <t>this is the</t>
-  </si>
-  <si>
     <t>of covid 19</t>
   </si>
   <si>
@@ -513,6 +570,12 @@
     <t>mail in ballots</t>
   </si>
   <si>
+    <t>school lutheran milwaukee</t>
+  </si>
+  <si>
+    <t>be able to</t>
+  </si>
+  <si>
     <t>school catholic milwaukee milwaukee</t>
   </si>
   <si>
@@ -624,36 +687,81 @@
     <t>and related biological products advisory</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>vaccine</t>
-  </si>
-  <si>
     <t>deaths</t>
   </si>
   <si>
-    <t>had</t>
-  </si>
-  <si>
-    <t>these</t>
+    <t>vaccinated</t>
+  </si>
+  <si>
+    <t>pfizer</t>
+  </si>
+  <si>
+    <t>vaccines</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>cdc</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>reported</t>
+  </si>
+  <si>
+    <t>ballots</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>the covid</t>
   </si>
   <si>
-    <t>have been</t>
-  </si>
-  <si>
-    <t>according to</t>
-  </si>
-  <si>
-    <t>is the</t>
-  </si>
-  <si>
     <t>the vaccine</t>
   </si>
   <si>
+    <t>the cdc</t>
+  </si>
+  <si>
+    <t>number of</t>
+  </si>
+  <si>
+    <t>of covid</t>
+  </si>
+  <si>
+    <t>would be</t>
+  </si>
+  <si>
+    <t>fully vaccinated</t>
+  </si>
+  <si>
+    <t>the unvaccinated</t>
+  </si>
+  <si>
+    <t>public health</t>
+  </si>
+  <si>
     <t>covid 19 vaccine</t>
   </si>
   <si>
@@ -681,6 +789,9 @@
     <t>covid 19 vaccines</t>
   </si>
   <si>
+    <t>of the covid</t>
+  </si>
+  <si>
     <t>the covid 19 vaccine</t>
   </si>
   <si>
@@ -780,19 +891,55 @@
     <t>the delta case rate in</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>vaccinated</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
     <t>vaccination</t>
   </si>
   <si>
-    <t>when</t>
+    <t>among</t>
+  </si>
+  <si>
+    <t>unvaccinated</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>olds</t>
+  </si>
+  <si>
+    <t>mortality</t>
+  </si>
+  <si>
+    <t>https</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>ukraine</t>
+  </si>
+  <si>
+    <t>following</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>likely</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shows</t>
   </si>
   <si>
     <t>year olds</t>
@@ -804,12 +951,36 @@
     <t>among the</t>
   </si>
   <si>
-    <t>the same</t>
-  </si>
-  <si>
     <t>likely to</t>
   </si>
   <si>
+    <t>more likely</t>
+  </si>
+  <si>
+    <t>the following</t>
+  </si>
+  <si>
+    <t>mortality rate</t>
+  </si>
+  <si>
+    <t>to die</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>vaccination status</t>
+  </si>
+  <si>
+    <t>shows the</t>
+  </si>
+  <si>
+    <t>19 vaccine</t>
+  </si>
+  <si>
+    <t>system performance</t>
+  </si>
+  <si>
     <t>more likely to</t>
   </si>
   <si>
@@ -969,19 +1140,64 @@
     <t>and early in person ballots</t>
   </si>
   <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>karachi</t>
   </si>
   <si>
-    <t>the world</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>according</t>
+  </si>
+  <si>
+    <t>cyclone</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>united</t>
+  </si>
+  <si>
+    <t>headlines</t>
+  </si>
+  <si>
+    <t>our source</t>
+  </si>
+  <si>
+    <t>the people</t>
+  </si>
+  <si>
+    <t>source said</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>in karachi</t>
+  </si>
+  <si>
+    <t>cyclone biparjoy</t>
+  </si>
+  <si>
+    <t>the wef</t>
   </si>
   <si>
     <t>world economic forum</t>
@@ -1005,15 +1221,18 @@
     <t>adverse reactions to</t>
   </si>
   <si>
-    <t>out of the</t>
-  </si>
-  <si>
     <t>real raw news</t>
   </si>
   <si>
     <t>the deep state</t>
   </si>
   <si>
+    <t>reported as adverse</t>
+  </si>
+  <si>
+    <t>of the world</t>
+  </si>
+  <si>
     <t>the world economic forum</t>
   </si>
   <si>
@@ -1113,22 +1332,67 @@
     <t>the covid 19 jabs by</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>into</t>
-  </si>
-  <si>
-    <t>000</t>
+    <t>national</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>ornato</t>
+  </si>
+  <si>
+    <t>committee</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>january</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>act</t>
   </si>
   <si>
     <t>you know</t>
   </si>
   <si>
-    <t>going to</t>
+    <t>national guard</t>
+  </si>
+  <si>
+    <t>white house</t>
+  </si>
+  <si>
+    <t>the bill</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>the national</t>
+  </si>
+  <si>
+    <t>the country</t>
+  </si>
+  <si>
+    <t>applying for</t>
   </si>
   <si>
     <t>the national guard</t>
@@ -1167,7 +1431,7 @@
     <t>and open streets</t>
   </si>
   <si>
-    <t>this is why</t>
+    <t>secretary of defense</t>
   </si>
   <si>
     <t>the safe and open</t>
@@ -1664,7 +1928,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1675,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1686,7 +1950,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1697,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>196</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1708,7 +1972,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>189</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1719,7 +1983,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>187</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1730,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>161</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1741,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>160</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1752,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>160</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1763,7 +2027,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1774,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1785,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>147</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1796,7 +2060,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1807,7 +2071,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1818,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1829,7 +2093,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1840,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1851,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1862,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1873,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1884,7 +2148,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1895,7 +2159,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1906,7 +2170,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>94</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1917,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>91</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1928,7 +2192,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1939,7 +2203,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1950,7 +2214,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1961,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1972,7 +2236,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1983,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1994,7 +2258,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2005,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2016,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2027,7 +2291,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2038,7 +2302,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2049,7 +2313,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>70</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2060,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2071,7 +2335,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2082,7 +2346,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2093,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2104,7 +2368,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2115,7 +2379,7 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2126,7 +2390,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2137,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>63</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2148,7 +2412,7 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2159,7 +2423,7 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2170,7 +2434,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2181,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2192,7 +2456,7 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2203,7 +2467,7 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2214,7 +2478,7 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>164</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2225,7 +2489,7 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2236,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2247,7 +2511,7 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2258,7 +2522,7 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2269,7 +2533,7 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2280,7 +2544,7 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2291,7 +2555,7 @@
         <v>60</v>
       </c>
       <c r="C59">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2302,7 +2566,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2313,7 +2577,7 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2324,7 +2588,7 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2335,7 +2599,7 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2346,7 +2610,7 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2357,7 +2621,7 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2368,7 +2632,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2379,7 +2643,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2390,7 +2654,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2401,7 +2665,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2412,7 +2676,7 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2423,7 +2687,7 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3115,10 +3379,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>850</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3126,10 +3390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>730</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3137,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C4">
-        <v>695</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3148,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>674</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3159,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>668</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3170,10 +3434,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="C7">
-        <v>644</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3181,10 +3445,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C8">
-        <v>628</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3192,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C9">
-        <v>618</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3203,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>603</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3214,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C11">
-        <v>594</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3225,10 +3489,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>550</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3236,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C13">
-        <v>523</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3247,10 +3511,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>504</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3258,10 +3522,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>462</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3269,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>461</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3280,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>421</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3291,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>406</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3305,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>403</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3313,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="C20">
-        <v>396</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3324,10 +3588,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>393</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3335,10 +3599,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>373</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3346,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>359</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3357,10 +3621,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C24">
-        <v>345</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3368,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="C25">
-        <v>342</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3379,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>321</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3390,10 +3654,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C27">
-        <v>308</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3401,10 +3665,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="C28">
-        <v>297</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3412,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
         <v>134</v>
-      </c>
-      <c r="C29">
-        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3423,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>276</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3434,10 +3698,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
-        <v>275</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3445,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C32">
-        <v>275</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3456,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="C33">
-        <v>272</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3467,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>269</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3478,10 +3742,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>268</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3489,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C36">
-        <v>268</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3500,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>261</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3511,10 +3775,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>261</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3522,10 +3786,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="C39">
-        <v>261</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3533,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C40">
-        <v>255</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3544,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C41">
-        <v>253</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3555,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="C42">
-        <v>252</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3566,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C43">
-        <v>249</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3577,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="C44">
-        <v>248</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3588,10 +3852,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="C45">
-        <v>247</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3599,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3610,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="C47">
-        <v>242</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3621,10 +3885,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C48">
-        <v>234</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3632,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="C49">
-        <v>234</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3643,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C50">
-        <v>227</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3654,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C51">
-        <v>223</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3665,10 +3929,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C52">
-        <v>557</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3676,10 +3940,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="C53">
-        <v>479</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3687,10 +3951,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C54">
-        <v>280</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3698,10 +3962,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C55">
-        <v>209</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3709,10 +3973,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C56">
-        <v>178</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3720,10 +3984,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="C57">
-        <v>177</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3731,10 +3995,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3742,10 +4006,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C59">
-        <v>168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3753,10 +4017,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C60">
-        <v>159</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3764,10 +4028,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C61">
-        <v>151</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3775,10 +4039,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62">
         <v>62</v>
-      </c>
-      <c r="C62">
-        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3786,10 +4050,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <v>127</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3797,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C64">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3808,10 +4072,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3819,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C66">
-        <v>115</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3830,10 +4094,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C67">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3841,10 +4105,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C68">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3852,10 +4116,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C69">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3863,10 +4127,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3874,10 +4138,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="C71">
-        <v>104</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3896,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C73">
         <v>36</v>
@@ -3907,7 +4171,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>36</v>
@@ -3918,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3929,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3940,10 +4204,10 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3951,10 +4215,10 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C78">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3962,10 +4226,10 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C79">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3973,7 +4237,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C80">
         <v>24</v>
@@ -3984,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C81">
         <v>24</v>
@@ -3995,7 +4259,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C82">
         <v>24</v>
@@ -4006,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -4017,10 +4281,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C84">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4028,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="C85">
         <v>23</v>
@@ -4039,10 +4303,10 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C86">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4050,10 +4314,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4061,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C88">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4072,10 +4336,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C89">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4083,10 +4347,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4094,10 +4358,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4105,7 +4369,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C92">
         <v>24</v>
@@ -4127,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="C94">
         <v>18</v>
@@ -4138,7 +4402,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <v>16</v>
@@ -4149,7 +4413,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="C96">
         <v>14</v>
@@ -4160,7 +4424,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -4171,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C98">
         <v>13</v>
@@ -4182,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="C99">
         <v>13</v>
@@ -4193,7 +4457,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C100">
         <v>13</v>
@@ -4204,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C101">
         <v>13</v>
@@ -4215,7 +4479,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C102">
         <v>12</v>
@@ -4226,7 +4490,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C103">
         <v>12</v>
@@ -4237,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C104">
         <v>12</v>
@@ -4248,7 +4512,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C105">
         <v>11</v>
@@ -4259,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="C106">
         <v>11</v>
@@ -4270,7 +4534,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C107">
         <v>11</v>
@@ -4281,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="C108">
         <v>11</v>
@@ -4303,7 +4567,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="C110">
         <v>11</v>
@@ -4314,7 +4578,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C111">
         <v>11</v>
@@ -4325,7 +4589,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="C112">
         <v>16</v>
@@ -4336,7 +4600,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -4347,7 +4611,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="C114">
         <v>11</v>
@@ -4358,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C115">
         <v>11</v>
@@ -4380,7 +4644,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="C117">
         <v>11</v>
@@ -4391,7 +4655,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C118">
         <v>11</v>
@@ -4402,7 +4666,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C119">
         <v>11</v>
@@ -4413,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C120">
         <v>11</v>
@@ -4424,7 +4688,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C121">
         <v>11</v>
@@ -4435,7 +4699,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -4446,7 +4710,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C123">
         <v>10</v>
@@ -4457,7 +4721,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C124">
         <v>10</v>
@@ -4468,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C125">
         <v>10</v>
@@ -4479,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C126">
         <v>10</v>
@@ -4490,7 +4754,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C127">
         <v>10</v>
@@ -4501,7 +4765,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C128">
         <v>10</v>
@@ -4512,7 +4776,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -4523,7 +4787,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="C130">
         <v>9</v>
@@ -4534,7 +4798,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C131">
         <v>9</v>
@@ -4569,10 +4833,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>813</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4580,10 +4844,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C3">
-        <v>760</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4591,10 +4855,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C4">
-        <v>684</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4602,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>679</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4613,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>677</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4624,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="C7">
-        <v>674</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4635,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>664</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4646,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>651</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4657,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>648</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4668,10 +4932,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C11">
-        <v>624</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4679,10 +4943,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="C12">
-        <v>614</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4690,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C13">
-        <v>609</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4701,10 +4965,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="C14">
-        <v>579</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4712,10 +4976,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>573</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4723,10 +4987,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>514</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4734,10 +4998,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>224</v>
       </c>
       <c r="C17">
-        <v>442</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4745,10 +5009,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="C18">
-        <v>435</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4756,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>433</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4767,10 +5031,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>423</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4778,10 +5042,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="C21">
-        <v>420</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4789,10 +5053,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>419</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4800,10 +5064,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>405</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4811,10 +5075,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>399</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4822,10 +5086,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>390</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4833,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>388</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4844,10 +5108,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="C27">
-        <v>380</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4855,10 +5119,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C28">
-        <v>377</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4866,10 +5130,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>350</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4877,10 +5141,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="C30">
-        <v>328</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4888,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="C31">
-        <v>308</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4899,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>306</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4910,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="C33">
-        <v>298</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4921,10 +5185,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="C34">
-        <v>290</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4932,10 +5196,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>278</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4943,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C36">
-        <v>275</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4954,10 +5218,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C37">
-        <v>274</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4965,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38">
-        <v>274</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4976,10 +5240,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="C39">
-        <v>271</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4987,10 +5251,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C40">
-        <v>270</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4998,10 +5262,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>267</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5009,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C42">
-        <v>259</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5020,10 +5284,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="C43">
-        <v>253</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5031,10 +5295,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>252</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5042,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>249</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5053,10 +5317,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>249</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5064,10 +5328,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>47</v>
       </c>
       <c r="C47">
-        <v>247</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5075,10 +5339,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="C48">
-        <v>245</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5086,10 +5350,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="C49">
-        <v>244</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5097,10 +5361,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="C50">
-        <v>241</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5108,10 +5372,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="C51">
-        <v>240</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5119,10 +5383,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C52">
-        <v>639</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5130,10 +5394,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="C53">
-        <v>568</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5141,10 +5405,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C54">
-        <v>372</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5152,10 +5416,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="C55">
-        <v>366</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5163,10 +5427,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C56">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5174,10 +5438,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="C57">
-        <v>182</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5185,10 +5449,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>179</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5196,10 +5460,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5207,10 +5471,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="C60">
-        <v>162</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5218,10 +5482,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C61">
-        <v>162</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5229,10 +5493,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="C62">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5240,10 +5504,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C63">
-        <v>145</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5251,10 +5515,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C64">
-        <v>135</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5262,10 +5526,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
         <v>58</v>
-      </c>
-      <c r="C65">
-        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5273,10 +5537,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="C66">
-        <v>123</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5284,10 +5548,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>121</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5295,10 +5559,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="C68">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5306,10 +5570,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>56</v>
       </c>
       <c r="C69">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5317,10 +5581,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C70">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5328,10 +5592,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5339,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C72">
         <v>79</v>
@@ -5350,7 +5614,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C73">
         <v>50</v>
@@ -5372,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C75">
         <v>46</v>
@@ -5383,7 +5647,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C76">
         <v>43</v>
@@ -5394,7 +5658,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="C77">
         <v>40</v>
@@ -5405,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C78">
         <v>38</v>
@@ -5438,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C81">
         <v>33</v>
@@ -5449,7 +5713,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="C82">
         <v>26</v>
@@ -5471,10 +5735,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="C84">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5482,7 +5746,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C85">
         <v>22</v>
@@ -5493,7 +5757,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="C86">
         <v>22</v>
@@ -5504,10 +5768,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="C87">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5515,10 +5779,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C88">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5526,7 +5790,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
       <c r="C89">
         <v>20</v>
@@ -5537,10 +5801,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5548,10 +5812,10 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5570,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="C93">
         <v>19</v>
@@ -5581,7 +5845,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C94">
         <v>14</v>
@@ -5592,7 +5856,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="C95">
         <v>13</v>
@@ -5603,7 +5867,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C96">
         <v>13</v>
@@ -5614,7 +5878,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C97">
         <v>11</v>
@@ -5625,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -5636,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C99">
         <v>11</v>
@@ -5647,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -5658,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -5669,7 +5933,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="C102">
         <v>10</v>
@@ -5680,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -5691,7 +5955,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -5702,7 +5966,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="C105">
         <v>10</v>
@@ -5713,7 +5977,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -5724,7 +5988,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="C107">
         <v>9</v>
@@ -5735,7 +5999,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C108">
         <v>9</v>
@@ -5757,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C110">
         <v>9</v>
@@ -5768,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -5779,7 +6043,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -5790,7 +6054,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -5801,7 +6065,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="C114">
         <v>10</v>
@@ -5812,7 +6076,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C115">
         <v>9</v>
@@ -5823,7 +6087,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C116">
         <v>9</v>
@@ -5834,7 +6098,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -5845,7 +6109,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="C118">
         <v>9</v>
@@ -5856,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C119">
         <v>9</v>
@@ -5867,7 +6131,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="C120">
         <v>9</v>
@@ -5878,7 +6142,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -5889,7 +6153,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -5900,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="C123">
         <v>7</v>
@@ -5911,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -5922,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="C125">
         <v>7</v>
@@ -5933,7 +6197,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -5944,7 +6208,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -5955,7 +6219,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -5966,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="C129">
         <v>7</v>
@@ -5977,7 +6241,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C130">
         <v>6</v>
@@ -5988,7 +6252,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="C131">
         <v>6</v>
@@ -6023,10 +6287,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>513</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6034,10 +6298,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="C3">
-        <v>488</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6045,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="C4">
-        <v>483</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6056,10 +6320,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>431</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6067,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>427</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6078,10 +6342,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="C7">
-        <v>418</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6089,10 +6353,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>414</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6100,10 +6364,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="C9">
-        <v>411</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6111,10 +6375,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10">
         <v>142</v>
-      </c>
-      <c r="C10">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6122,10 +6386,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="C11">
-        <v>366</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6133,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="C12">
-        <v>362</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6144,10 +6408,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="C13">
-        <v>358</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6155,10 +6419,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>351</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6166,10 +6430,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="C15">
-        <v>330</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6177,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="C16">
-        <v>326</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6188,10 +6452,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="C17">
-        <v>295</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6199,10 +6463,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="C18">
-        <v>292</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6210,10 +6474,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="C19">
-        <v>260</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6221,10 +6485,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="C20">
-        <v>253</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6232,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>248</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6243,10 +6507,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>239</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6254,10 +6518,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>237</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6265,10 +6529,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>230</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6276,10 +6540,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="C25">
-        <v>230</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6287,10 +6551,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>218</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6298,10 +6562,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6309,10 +6573,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>203</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6320,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>197</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6331,10 +6595,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="C30">
-        <v>194</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6342,10 +6606,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="C31">
-        <v>189</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6353,10 +6617,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="C32">
-        <v>188</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6364,10 +6628,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6375,10 +6639,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>172</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6386,10 +6650,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="C35">
-        <v>169</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6397,10 +6661,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="C36">
-        <v>168</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6408,10 +6672,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C37">
-        <v>167</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6419,10 +6683,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="C38">
-        <v>166</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6430,10 +6694,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C39">
-        <v>163</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6441,10 +6705,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="C40">
-        <v>160</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6452,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>230</v>
       </c>
       <c r="C41">
-        <v>155</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6463,10 +6727,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C42">
-        <v>154</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6474,10 +6738,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="C43">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6485,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>302</v>
       </c>
       <c r="C44">
-        <v>147</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6496,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C45">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6507,10 +6771,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="C46">
-        <v>145</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6518,10 +6782,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6529,10 +6793,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="C48">
-        <v>142</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6540,10 +6804,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="C49">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6551,10 +6815,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>306</v>
       </c>
       <c r="C50">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6562,10 +6826,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="C51">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6573,10 +6837,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C52">
-        <v>405</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6584,10 +6848,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="C53">
-        <v>341</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -6595,10 +6859,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="C54">
-        <v>307</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -6606,10 +6870,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="C55">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -6617,10 +6881,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="C56">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -6628,10 +6892,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="C57">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -6639,10 +6903,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -6650,10 +6914,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
         <v>59</v>
-      </c>
-      <c r="C59">
-        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -6661,10 +6925,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="C60">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6672,10 +6936,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="C61">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6683,10 +6947,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>312</v>
       </c>
       <c r="C62">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -6694,10 +6958,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="C63">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -6705,10 +6969,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="C64">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -6716,10 +6980,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="C65">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6727,10 +6991,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="C66">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -6738,10 +7002,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="C67">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6749,10 +7013,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="C68">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -6760,10 +7024,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="C69">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -6771,10 +7035,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="C70">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6782,10 +7046,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="C71">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6793,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C72">
         <v>74</v>
@@ -6804,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="C73">
         <v>55</v>
@@ -6815,7 +7079,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>321</v>
       </c>
       <c r="C74">
         <v>50</v>
@@ -6826,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C75">
         <v>43</v>
@@ -6837,7 +7101,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="C76">
         <v>42</v>
@@ -6848,7 +7112,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C77">
         <v>40</v>
@@ -6859,7 +7123,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="C78">
         <v>40</v>
@@ -6870,7 +7134,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="C79">
         <v>35</v>
@@ -6881,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C80">
         <v>35</v>
@@ -6892,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>269</v>
+        <v>326</v>
       </c>
       <c r="C81">
         <v>34</v>
@@ -6903,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>327</v>
       </c>
       <c r="C82">
         <v>33</v>
@@ -6914,7 +7178,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C83">
         <v>33</v>
@@ -6925,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="C84">
         <v>31</v>
@@ -6936,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="C85">
         <v>31</v>
@@ -6947,7 +7211,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C86">
         <v>28</v>
@@ -6969,7 +7233,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C88">
         <v>27</v>
@@ -6980,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C89">
         <v>27</v>
@@ -6991,7 +7255,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C90">
         <v>26</v>
@@ -7002,7 +7266,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C91">
         <v>26</v>
@@ -7013,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="C92">
         <v>43</v>
@@ -7024,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="C93">
         <v>34</v>
@@ -7035,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="C94">
         <v>31</v>
@@ -7046,7 +7310,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="C95">
         <v>31</v>
@@ -7057,7 +7321,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="C96">
         <v>27</v>
@@ -7068,7 +7332,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C97">
         <v>23</v>
@@ -7079,7 +7343,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="C98">
         <v>23</v>
@@ -7090,7 +7354,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="C99">
         <v>16</v>
@@ -7101,7 +7365,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="C100">
         <v>16</v>
@@ -7112,7 +7376,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>342</v>
       </c>
       <c r="C101">
         <v>16</v>
@@ -7123,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="C102">
         <v>15</v>
@@ -7134,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="C103">
         <v>15</v>
@@ -7145,7 +7409,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="C104">
         <v>15</v>
@@ -7156,7 +7420,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="C105">
         <v>15</v>
@@ -7167,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>347</v>
       </c>
       <c r="C106">
         <v>15</v>
@@ -7178,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C107">
         <v>15</v>
@@ -7189,7 +7453,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="C108">
         <v>15</v>
@@ -7200,7 +7464,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="C109">
         <v>14</v>
@@ -7211,7 +7475,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="C110">
         <v>14</v>
@@ -7222,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="C111">
         <v>14</v>
@@ -7233,7 +7497,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="C112">
         <v>33</v>
@@ -7244,7 +7508,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C113">
         <v>31</v>
@@ -7255,7 +7519,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>298</v>
+        <v>355</v>
       </c>
       <c r="C114">
         <v>27</v>
@@ -7266,7 +7530,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="C115">
         <v>16</v>
@@ -7277,7 +7541,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>357</v>
       </c>
       <c r="C116">
         <v>15</v>
@@ -7288,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>301</v>
+        <v>358</v>
       </c>
       <c r="C117">
         <v>15</v>
@@ -7299,7 +7563,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="C118">
         <v>15</v>
@@ -7310,7 +7574,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="C119">
         <v>15</v>
@@ -7321,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="C120">
         <v>14</v>
@@ -7332,7 +7596,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="C121">
         <v>14</v>
@@ -7343,7 +7607,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="C122">
         <v>13</v>
@@ -7354,7 +7618,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="C123">
         <v>13</v>
@@ -7365,7 +7629,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="C124">
         <v>11</v>
@@ -7376,7 +7640,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -7387,7 +7651,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="C126">
         <v>11</v>
@@ -7398,7 +7662,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="C127">
         <v>10</v>
@@ -7409,7 +7673,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="C128">
         <v>10</v>
@@ -7420,7 +7684,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="C129">
         <v>10</v>
@@ -7431,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="C130">
         <v>10</v>
@@ -7442,7 +7706,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="C131">
         <v>10</v>
@@ -7477,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C2">
-        <v>600</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7488,10 +7752,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>599</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7499,10 +7763,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>588</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7510,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="C5">
-        <v>587</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7521,10 +7785,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="C6">
-        <v>488</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7532,10 +7796,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>483</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7543,10 +7807,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>472</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7554,10 +7818,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C9">
-        <v>459</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7565,10 +7829,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="C10">
-        <v>454</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7576,10 +7840,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>430</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7587,10 +7851,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="C12">
-        <v>410</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7598,10 +7862,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="C13">
-        <v>396</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7609,10 +7873,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="C14">
-        <v>393</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7620,10 +7884,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>377</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7631,10 +7895,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>374</v>
       </c>
       <c r="C16">
-        <v>364</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7642,10 +7906,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>353</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7653,10 +7917,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>351</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7664,10 +7928,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>375</v>
       </c>
       <c r="C19">
-        <v>326</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7675,10 +7939,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C20">
-        <v>324</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7686,10 +7950,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>376</v>
       </c>
       <c r="C21">
-        <v>323</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7697,10 +7961,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>312</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7708,10 +7972,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>377</v>
       </c>
       <c r="C23">
-        <v>284</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7719,10 +7983,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>283</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7730,10 +7994,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>275</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7741,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C26">
-        <v>269</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7752,10 +8016,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>266</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7763,10 +8027,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>261</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7774,10 +8038,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>378</v>
       </c>
       <c r="C29">
-        <v>256</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7785,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30">
-        <v>244</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7796,10 +8060,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="C31">
-        <v>239</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7807,10 +8071,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C32">
-        <v>238</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7818,10 +8082,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C33">
-        <v>231</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7829,10 +8093,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="C34">
-        <v>230</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7840,10 +8104,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="C35">
-        <v>204</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7851,10 +8115,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>204</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7862,10 +8126,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>203</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7873,10 +8137,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>379</v>
       </c>
       <c r="C38">
-        <v>200</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7884,10 +8148,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>195</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7895,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C40">
-        <v>195</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7906,10 +8170,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>194</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7917,10 +8181,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="C42">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7928,10 +8192,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7939,10 +8203,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
       <c r="C44">
-        <v>192</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7950,10 +8214,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="C45">
-        <v>192</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7961,10 +8225,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="C46">
-        <v>189</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7972,10 +8236,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="C47">
-        <v>188</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7983,10 +8247,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C48">
-        <v>186</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7994,10 +8258,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>384</v>
       </c>
       <c r="C49">
-        <v>186</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8005,10 +8269,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C50">
-        <v>179</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8016,10 +8280,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="C51">
-        <v>172</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8027,10 +8291,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>499</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8038,10 +8302,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C53">
-        <v>465</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8049,10 +8313,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="C54">
-        <v>291</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8060,10 +8324,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="C55">
-        <v>171</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8071,10 +8335,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C56">
-        <v>156</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8082,10 +8346,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>142</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8093,10 +8357,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8104,10 +8368,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="C59">
-        <v>131</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8115,10 +8379,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8126,10 +8390,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8137,10 +8401,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="C62">
-        <v>127</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8148,10 +8412,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>387</v>
       </c>
       <c r="C63">
-        <v>121</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8159,10 +8423,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
       <c r="C64">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8170,10 +8434,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>388</v>
       </c>
       <c r="C65">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8181,10 +8445,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>389</v>
       </c>
       <c r="C66">
-        <v>103</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8192,10 +8456,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>390</v>
       </c>
       <c r="C67">
-        <v>94</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8203,10 +8467,10 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="C68">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8214,10 +8478,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="C69">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8225,10 +8489,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C70">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8236,10 +8500,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="C71">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8247,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C72">
         <v>50</v>
@@ -8258,7 +8522,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C73">
         <v>48</v>
@@ -8280,7 +8544,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="C75">
         <v>41</v>
@@ -8302,7 +8566,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="C77">
         <v>30</v>
@@ -8313,7 +8577,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="C78">
         <v>22</v>
@@ -8324,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="C79">
         <v>22</v>
@@ -8335,7 +8599,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="C80">
         <v>21</v>
@@ -8357,7 +8621,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C82">
         <v>20</v>
@@ -8368,7 +8632,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="C83">
         <v>19</v>
@@ -8379,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C84">
         <v>19</v>
@@ -8390,7 +8654,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="C85">
         <v>18</v>
@@ -8401,7 +8665,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="C86">
         <v>18</v>
@@ -8412,10 +8676,10 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="C87">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8423,10 +8687,10 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="C88">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8434,10 +8698,10 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>401</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -8445,10 +8709,10 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -8456,7 +8720,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="C91">
         <v>15</v>
@@ -8467,7 +8731,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="C92">
         <v>22</v>
@@ -8478,7 +8742,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="C93">
         <v>15</v>
@@ -8489,7 +8753,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="C94">
         <v>14</v>
@@ -8500,7 +8764,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -8511,7 +8775,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="C96">
         <v>12</v>
@@ -8522,7 +8786,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -8533,7 +8797,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="C98">
         <v>11</v>
@@ -8555,7 +8819,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>410</v>
       </c>
       <c r="C100">
         <v>10</v>
@@ -8566,7 +8830,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>338</v>
+        <v>411</v>
       </c>
       <c r="C101">
         <v>10</v>
@@ -8577,7 +8841,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="C102">
         <v>10</v>
@@ -8588,7 +8852,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>413</v>
       </c>
       <c r="C103">
         <v>10</v>
@@ -8599,7 +8863,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C104">
         <v>10</v>
@@ -8610,7 +8874,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="C105">
         <v>9</v>
@@ -8621,7 +8885,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="C106">
         <v>9</v>
@@ -8632,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="C107">
         <v>8</v>
@@ -8643,7 +8907,7 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -8654,7 +8918,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="C109">
         <v>8</v>
@@ -8665,7 +8929,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>344</v>
+        <v>417</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -8676,7 +8940,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>418</v>
       </c>
       <c r="C111">
         <v>8</v>
@@ -8687,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>419</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -8698,7 +8962,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="C113">
         <v>10</v>
@@ -8709,7 +8973,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="C114">
         <v>9</v>
@@ -8720,7 +8984,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="C115">
         <v>8</v>
@@ -8731,7 +8995,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="C116">
         <v>8</v>
@@ -8742,7 +9006,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C117">
         <v>8</v>
@@ -8753,7 +9017,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="C118">
         <v>8</v>
@@ -8764,7 +9028,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="C119">
         <v>7</v>
@@ -8775,7 +9039,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="C120">
         <v>7</v>
@@ -8786,7 +9050,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>426</v>
       </c>
       <c r="C121">
         <v>7</v>
@@ -8797,7 +9061,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>427</v>
       </c>
       <c r="C122">
         <v>7</v>
@@ -8808,7 +9072,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
       <c r="C123">
         <v>7</v>
@@ -8819,7 +9083,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -8830,7 +9094,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="C125">
         <v>7</v>
@@ -8841,7 +9105,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -8852,7 +9116,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -8863,7 +9127,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="C128">
         <v>7</v>
@@ -8874,7 +9138,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="C129">
         <v>7</v>
@@ -8885,7 +9149,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="C130">
         <v>7</v>
@@ -8896,7 +9160,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="C131">
         <v>7</v>
@@ -8934,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8942,10 +9206,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8953,10 +9217,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8967,7 +9231,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8975,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8986,10 +9250,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C7">
-        <v>116</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8997,10 +9261,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9008,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9019,10 +9283,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9030,10 +9294,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>103</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9041,10 +9305,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="C12">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9052,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9063,10 +9327,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>437</v>
       </c>
       <c r="C14">
-        <v>90</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9074,10 +9338,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9085,10 +9349,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9096,10 +9360,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="C17">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9107,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9118,10 +9382,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="C19">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9129,10 +9393,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9140,10 +9404,10 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9151,10 +9415,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C22">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9162,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9173,10 +9437,10 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>438</v>
       </c>
       <c r="C24">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9184,10 +9448,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9195,10 +9459,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>439</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9206,10 +9470,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9217,10 +9481,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>440</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9228,10 +9492,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9239,10 +9503,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9250,10 +9514,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9261,10 +9525,10 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>441</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9272,10 +9536,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9283,10 +9547,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>442</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9294,10 +9558,10 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>443</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9305,10 +9569,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9316,10 +9580,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9327,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>444</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9338,10 +9602,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="C39">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9349,10 +9613,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>140</v>
+        <v>446</v>
       </c>
       <c r="C40">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9360,10 +9624,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9371,10 +9635,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>447</v>
       </c>
       <c r="C42">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9382,10 +9646,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9393,10 +9657,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9404,10 +9668,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9415,10 +9679,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9426,10 +9690,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9437,10 +9701,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>448</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -9448,10 +9712,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>382</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -9459,10 +9723,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -9470,10 +9734,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C51">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -9481,10 +9745,10 @@
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="C52">
-        <v>122</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -9492,10 +9756,10 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="C53">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -9503,10 +9767,10 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="C54">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -9514,10 +9778,10 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C55">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -9525,10 +9789,10 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="C56">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -9536,10 +9800,10 @@
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>452</v>
       </c>
       <c r="C57">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -9547,10 +9811,10 @@
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -9558,10 +9822,10 @@
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>454</v>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -9569,10 +9833,10 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -9580,10 +9844,10 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -9591,10 +9855,10 @@
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C62">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -9602,10 +9866,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>243</v>
       </c>
       <c r="C63">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -9613,10 +9877,10 @@
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="C64">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -9624,10 +9888,10 @@
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -9635,10 +9899,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -9646,10 +9910,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -9660,7 +9924,7 @@
         <v>62</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -9668,10 +9932,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="C69">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -9679,10 +9943,10 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C70">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -9690,10 +9954,10 @@
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -9712,7 +9976,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -9723,7 +9987,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="C74">
         <v>9</v>
@@ -9734,7 +9998,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C75">
         <v>8</v>
@@ -9745,7 +10009,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>371</v>
+        <v>459</v>
       </c>
       <c r="C76">
         <v>8</v>
@@ -9756,7 +10020,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="C77">
         <v>8</v>
@@ -9767,7 +10031,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -9789,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C80">
         <v>7</v>
@@ -9800,7 +10064,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C81">
         <v>7</v>
@@ -9811,7 +10075,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>374</v>
+        <v>462</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -9822,7 +10086,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>375</v>
+        <v>463</v>
       </c>
       <c r="C83">
         <v>6</v>
@@ -9833,7 +10097,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>376</v>
+        <v>464</v>
       </c>
       <c r="C84">
         <v>6</v>
@@ -9844,7 +10108,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>377</v>
+        <v>465</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -9855,7 +10119,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>378</v>
+        <v>466</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -9866,7 +10130,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>379</v>
+        <v>467</v>
       </c>
       <c r="C87">
         <v>6</v>
@@ -9877,7 +10141,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>468</v>
       </c>
       <c r="C88">
         <v>6</v>
@@ -9888,7 +10152,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>381</v>
+        <v>469</v>
       </c>
       <c r="C89">
         <v>6</v>
@@ -9899,7 +10163,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="C90">
         <v>5</v>
@@ -9910,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -9921,7 +10185,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -9932,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>384</v>
+        <v>472</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -9943,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="B94" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="C94">
         <v>6</v>
@@ -9954,7 +10218,7 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="C95">
         <v>5</v>
@@ -9965,7 +10229,7 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="C96">
         <v>5</v>
@@ -9976,7 +10240,7 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -9987,7 +10251,7 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -9998,7 +10262,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -10009,7 +10273,7 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="C100">
         <v>3</v>
@@ -10020,7 +10284,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -10031,7 +10295,7 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -10042,7 +10306,7 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>393</v>
+        <v>481</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -10053,7 +10317,7 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>394</v>
+        <v>482</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -10064,7 +10328,7 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -10075,7 +10339,7 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -10086,7 +10350,7 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>397</v>
+        <v>485</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -10108,7 +10372,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>398</v>
+        <v>486</v>
       </c>
       <c r="C109">
         <v>3</v>
@@ -10119,7 +10383,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>399</v>
+        <v>487</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -10130,7 +10394,7 @@
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -10141,7 +10405,7 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>401</v>
+        <v>489</v>
       </c>
       <c r="C112">
         <v>6</v>
@@ -10152,7 +10416,7 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -10163,7 +10427,7 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>491</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -10174,7 +10438,7 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>492</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -10185,7 +10449,7 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>405</v>
+        <v>493</v>
       </c>
       <c r="C116">
         <v>3</v>
@@ -10196,7 +10460,7 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>406</v>
+        <v>494</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -10207,7 +10471,7 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>407</v>
+        <v>495</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -10218,7 +10482,7 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>408</v>
+        <v>496</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -10229,7 +10493,7 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>497</v>
       </c>
       <c r="C120">
         <v>2</v>
@@ -10240,7 +10504,7 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>410</v>
+        <v>498</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -10251,7 +10515,7 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -10262,7 +10526,7 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>412</v>
+        <v>500</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -10273,7 +10537,7 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>413</v>
+        <v>501</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -10284,7 +10548,7 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="C125">
         <v>2</v>
@@ -10295,7 +10559,7 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -10306,7 +10570,7 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -10317,7 +10581,7 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
+        <v>505</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -10328,7 +10592,7 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>418</v>
+        <v>506</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -10339,7 +10603,7 @@
         <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>419</v>
+        <v>507</v>
       </c>
       <c r="C130">
         <v>2</v>
@@ -10350,7 +10614,7 @@
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="C131">
         <v>2</v>
